--- a/region.xlsx
+++ b/region.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/Downloads/기상청20_중기예보 조회서비스_오픈API활용가이드 (1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eunjin/github/WeatherApp_iOS/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED45F6-6FC4-DF4C-9A8C-95E51FFAB5A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F203755-3462-F747-9B3F-B4EE7774D78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36020" yWindow="5800" windowWidth="24760" windowHeight="11560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="41400" yWindow="3240" windowWidth="24760" windowHeight="15780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$174</definedName>
+    <definedName name="OLE_LINK23" localSheetId="0">Sheet1!$G$4</definedName>
+    <definedName name="OLE_LINK43" localSheetId="0">Sheet1!$D$160</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="367">
   <si>
     <t>서울·인천·경기도</t>
   </si>
@@ -1101,19 +1103,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>o</t>
+    <t>예보코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남한 통보문 지점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>11B00000</t>
+  </si>
+  <si>
+    <t>11H20000</t>
+  </si>
+  <si>
+    <t>11H10000</t>
+  </si>
+  <si>
+    <t>11F20000</t>
+  </si>
+  <si>
+    <t>11F10000</t>
+  </si>
+  <si>
+    <t>11C20000</t>
+  </si>
+  <si>
+    <t>11C10000</t>
+  </si>
+  <si>
+    <t>11G00000</t>
+  </si>
+  <si>
+    <t>11D20000</t>
+  </si>
+  <si>
+    <t>11D10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1156,15 +1184,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1220,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,12 +1260,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,21 +1541,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D174"/>
+      <selection activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="7" customWidth="1"/>
+    <col min="3" max="4" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>353</v>
       </c>
@@ -1552,11 +1564,11 @@
       <c r="C1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="D1" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1567,10 +1579,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1581,10 +1593,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1595,10 +1607,10 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,10 +1620,12 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="D5" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1621,10 +1635,12 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="D6" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1634,9 +1650,11 @@
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="D7" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,9 +1664,11 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="D8" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1659,10 +1679,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1672,9 +1692,11 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="D10" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,9 +1706,11 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="D11" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,9 +1720,11 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="D12" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1708,9 +1734,11 @@
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="D13" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,9 +1748,11 @@
       <c r="C14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="D14" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,9 +1762,11 @@
       <c r="C15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="D15" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1744,7 +1776,9 @@
       <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
@@ -1756,7 +1790,9 @@
       <c r="C17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
@@ -1768,7 +1804,9 @@
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
@@ -1780,7 +1818,9 @@
       <c r="C19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
@@ -1793,7 +1833,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1806,7 +1846,9 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
@@ -1818,7 +1860,9 @@
       <c r="C22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
@@ -1830,7 +1874,9 @@
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
@@ -1842,7 +1888,9 @@
       <c r="C24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
@@ -1855,7 +1903,7 @@
         <v>48</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1868,7 +1916,9 @@
       <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
@@ -1880,7 +1930,9 @@
       <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
@@ -1892,7 +1944,9 @@
       <c r="C28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
@@ -1904,7 +1958,9 @@
       <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
@@ -1916,7 +1972,9 @@
       <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
@@ -1928,7 +1986,9 @@
       <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
@@ -1940,7 +2000,9 @@
       <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
@@ -1952,7 +2014,9 @@
       <c r="C33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
@@ -1964,7 +2028,9 @@
       <c r="C34" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
@@ -1976,7 +2042,9 @@
       <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
@@ -1988,7 +2056,9 @@
       <c r="C36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="5" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
@@ -2001,7 +2071,7 @@
         <v>73</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2015,7 +2085,7 @@
         <v>75</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2028,7 +2098,9 @@
       <c r="C39" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
@@ -2040,7 +2112,9 @@
       <c r="C40" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
@@ -2053,7 +2127,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2066,7 +2140,9 @@
       <c r="C42" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="2"/>
+      <c r="D42" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
@@ -2078,7 +2154,9 @@
       <c r="C43" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="2"/>
+      <c r="D43" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
@@ -2090,7 +2168,9 @@
       <c r="C44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
@@ -2102,7 +2182,9 @@
       <c r="C45" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
@@ -2115,7 +2197,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2128,7 +2210,9 @@
       <c r="C47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D47" s="2"/>
+      <c r="D47" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
@@ -2140,7 +2224,9 @@
       <c r="C48" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="2"/>
+      <c r="D48" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
@@ -2153,7 +2239,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2166,7 +2252,9 @@
       <c r="C50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
@@ -2178,7 +2266,9 @@
       <c r="C51" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="2"/>
+      <c r="D51" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
@@ -2190,7 +2280,9 @@
       <c r="C52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
@@ -2203,7 +2295,7 @@
         <v>105</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2216,7 +2308,9 @@
       <c r="C54" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
@@ -2228,7 +2322,9 @@
       <c r="C55" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
@@ -2240,7 +2336,9 @@
       <c r="C56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="5" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
@@ -2253,7 +2351,7 @@
         <v>114</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2266,7 +2364,9 @@
       <c r="C58" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
@@ -2278,7 +2378,9 @@
       <c r="C59" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
@@ -2290,7 +2392,9 @@
       <c r="C60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
@@ -2302,7 +2406,9 @@
       <c r="C61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D61" s="2"/>
+      <c r="D61" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
@@ -2314,7 +2420,9 @@
       <c r="C62" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D62" s="2"/>
+      <c r="D62" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
@@ -2326,7 +2434,9 @@
       <c r="C63" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="2"/>
+      <c r="D63" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
@@ -2338,7 +2448,9 @@
       <c r="C64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="2"/>
+      <c r="D64" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
@@ -2350,7 +2462,9 @@
       <c r="C65" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D65" s="2"/>
+      <c r="D65" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
@@ -2362,7 +2476,9 @@
       <c r="C66" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D66" s="2"/>
+      <c r="D66" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="4" t="s">
@@ -2375,7 +2491,7 @@
         <v>134</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2388,7 +2504,9 @@
       <c r="C68" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
@@ -2400,7 +2518,9 @@
       <c r="C69" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D69" s="2"/>
+      <c r="D69" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
@@ -2412,7 +2532,9 @@
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
@@ -2424,7 +2546,9 @@
       <c r="C71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
@@ -2436,7 +2560,9 @@
       <c r="C72" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
@@ -2448,7 +2574,9 @@
       <c r="C73" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
@@ -2460,7 +2588,9 @@
       <c r="C74" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
@@ -2472,7 +2602,9 @@
       <c r="C75" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="4" t="s">
@@ -2485,7 +2617,7 @@
         <v>152</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2498,7 +2630,9 @@
       <c r="C77" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="4" t="s">
@@ -2511,7 +2645,7 @@
         <v>156</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2525,7 +2659,7 @@
         <v>158</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2539,7 +2673,7 @@
         <v>160</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2552,7 +2686,9 @@
       <c r="C81" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81" s="5" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="4" t="s">
@@ -2565,7 +2701,7 @@
         <v>164</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2579,7 +2715,7 @@
         <v>166</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2592,7 +2728,9 @@
       <c r="C84" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
@@ -2604,7 +2742,9 @@
       <c r="C85" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
@@ -2616,7 +2756,9 @@
       <c r="C86" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
@@ -2628,7 +2770,9 @@
       <c r="C87" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
@@ -2640,7 +2784,9 @@
       <c r="C88" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="4" t="s">
@@ -2653,7 +2799,7 @@
         <v>178</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2666,7 +2812,9 @@
       <c r="C90" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
@@ -2678,7 +2826,9 @@
       <c r="C91" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
@@ -2690,7 +2840,9 @@
       <c r="C92" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
@@ -2702,7 +2854,9 @@
       <c r="C93" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
@@ -2714,7 +2868,9 @@
       <c r="C94" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="4" t="s">
@@ -2727,7 +2883,7 @@
         <v>190</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2741,7 +2897,7 @@
         <v>192</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2754,7 +2910,9 @@
       <c r="C97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
@@ -2766,7 +2924,9 @@
       <c r="C98" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
@@ -2778,7 +2938,9 @@
       <c r="C99" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
@@ -2790,7 +2952,9 @@
       <c r="C100" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
@@ -2802,7 +2966,9 @@
       <c r="C101" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
@@ -2814,7 +2980,9 @@
       <c r="C102" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="4" t="s">
@@ -2827,7 +2995,7 @@
         <v>206</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2840,7 +3008,9 @@
       <c r="C104" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
@@ -2852,7 +3022,9 @@
       <c r="C105" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105" s="5" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="4" t="s">
@@ -2865,7 +3037,7 @@
         <v>213</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2878,7 +3050,9 @@
       <c r="C107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="4" t="s">
@@ -2891,7 +3065,7 @@
         <v>217</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2905,7 +3079,7 @@
         <v>219</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2918,7 +3092,9 @@
       <c r="C110" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="4" t="s">
@@ -2931,7 +3107,7 @@
         <v>223</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2945,7 +3121,7 @@
         <v>225</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2959,7 +3135,7 @@
         <v>227</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2972,7 +3148,9 @@
       <c r="C114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
@@ -2984,7 +3162,9 @@
       <c r="C115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
@@ -2996,7 +3176,9 @@
       <c r="C116" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
@@ -3008,7 +3190,9 @@
       <c r="C117" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
@@ -3020,7 +3204,9 @@
       <c r="C118" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
@@ -3032,7 +3218,9 @@
       <c r="C119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119" s="5" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="4" t="s">
@@ -3045,7 +3233,7 @@
         <v>242</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3059,7 +3247,7 @@
         <v>244</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3072,7 +3260,9 @@
       <c r="C122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
@@ -3084,7 +3274,9 @@
       <c r="C123" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
@@ -3096,7 +3288,9 @@
       <c r="C124" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
@@ -3108,7 +3302,9 @@
       <c r="C125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
@@ -3120,7 +3316,9 @@
       <c r="C126" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
@@ -3132,7 +3330,9 @@
       <c r="C127" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
@@ -3144,7 +3344,9 @@
       <c r="C128" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
@@ -3156,7 +3358,9 @@
       <c r="C129" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
@@ -3168,7 +3372,9 @@
       <c r="C130" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
@@ -3180,7 +3386,9 @@
       <c r="C131" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="4" t="s">
@@ -3193,7 +3401,7 @@
         <v>266</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3206,7 +3414,9 @@
       <c r="C133" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
@@ -3218,7 +3428,9 @@
       <c r="C134" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
@@ -3230,7 +3442,9 @@
       <c r="C135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
@@ -3242,7 +3456,9 @@
       <c r="C136" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136" s="5" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="4" t="s">
@@ -3255,7 +3471,7 @@
         <v>277</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3268,7 +3484,9 @@
       <c r="C138" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
@@ -3280,7 +3498,9 @@
       <c r="C139" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
@@ -3292,7 +3512,9 @@
       <c r="C140" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="4" t="s">
@@ -3305,7 +3527,7 @@
         <v>285</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3318,7 +3540,9 @@
       <c r="C142" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
@@ -3330,7 +3554,9 @@
       <c r="C143" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
@@ -3342,7 +3568,9 @@
       <c r="C144" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
@@ -3354,7 +3582,9 @@
       <c r="C145" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
@@ -3366,7 +3596,9 @@
       <c r="C146" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="4" t="s">
@@ -3379,7 +3611,7 @@
         <v>297</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3392,7 +3624,9 @@
       <c r="C148" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148" s="5" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
@@ -3404,7 +3638,9 @@
       <c r="C149" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
@@ -3416,7 +3652,9 @@
       <c r="C150" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
@@ -3428,7 +3666,9 @@
       <c r="C151" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
@@ -3440,7 +3680,9 @@
       <c r="C152" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="4" t="s">
@@ -3452,8 +3694,8 @@
       <c r="C153" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D153" s="5" t="s">
-        <v>356</v>
+      <c r="D153" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3466,7 +3708,9 @@
       <c r="C154" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D154" s="2"/>
+      <c r="D154" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="4" t="s">
@@ -3478,8 +3722,8 @@
       <c r="C155" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D155" s="5" t="s">
-        <v>356</v>
+      <c r="D155" s="2" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3492,7 +3736,9 @@
       <c r="C156" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
@@ -3504,7 +3750,9 @@
       <c r="C157" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
@@ -3516,7 +3764,9 @@
       <c r="C158" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
@@ -3528,7 +3778,9 @@
       <c r="C159" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
@@ -3540,7 +3792,9 @@
       <c r="C160" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160" s="2" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
@@ -3552,7 +3806,9 @@
       <c r="C161" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
@@ -3564,7 +3820,9 @@
       <c r="C162" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
@@ -3576,7 +3834,9 @@
       <c r="C163" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D163" s="2"/>
+      <c r="D163" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="4" t="s">
@@ -3588,8 +3848,8 @@
       <c r="C164" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D164" s="5" t="s">
-        <v>356</v>
+      <c r="D164" s="2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3602,7 +3862,9 @@
       <c r="C165" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
@@ -3614,7 +3876,9 @@
       <c r="C166" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D166" s="2"/>
+      <c r="D166" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
@@ -3626,7 +3890,9 @@
       <c r="C167" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D167" s="2"/>
+      <c r="D167" s="2" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="4" t="s">
@@ -3639,7 +3905,7 @@
         <v>340</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3653,7 +3919,7 @@
         <v>342</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3666,7 +3932,9 @@
       <c r="C170" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D170" s="2"/>
+      <c r="D170" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
@@ -3678,7 +3946,9 @@
       <c r="C171" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D171" s="2"/>
+      <c r="D171" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
@@ -3690,7 +3960,9 @@
       <c r="C172" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D172" s="2"/>
+      <c r="D172" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
@@ -3702,7 +3974,9 @@
       <c r="C173" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
@@ -3714,10 +3988,12 @@
       <c r="C174" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174" s="5" t="s">
+        <v>364</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:C174" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
